--- a/data/trans_camb/DC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/DC-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-9.85537195626879</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>14.36860665308502</v>
+        <v>14.36860665308501</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.76637758425993</v>
+        <v>-14.15583554536793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.58073359540296</v>
+        <v>-16.14445117022423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4002088239402537</v>
+        <v>0.3952066193976055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.088894235475045</v>
+        <v>-6.961322698137227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.24625208491759</v>
+        <v>-12.21963259802459</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.7244306376364</v>
+        <v>16.78327094132804</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.717344822202348</v>
+        <v>-8.603589156707226</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.98576165598782</v>
+        <v>-12.62511218035255</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.37784757523858</v>
+        <v>11.30418153257856</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.864402155657793</v>
+        <v>-6.396846302793194</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.231379156597765</v>
+        <v>-8.527574317211231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.388518372641792</v>
+        <v>9.848947008169349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08562135498941513</v>
+        <v>0.4279755457276691</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.560556982779703</v>
+        <v>-4.329638069702023</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.33470524524608</v>
+        <v>24.25854152388172</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-3.193420249759894</v>
+        <v>-3.034624669181381</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-7.197974859147779</v>
+        <v>-7.151988404750474</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.25849370034584</v>
+        <v>17.34225829220459</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3125289720323814</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4556505717645613</v>
+        <v>0.4556505717645611</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4698017133081739</v>
+        <v>-0.4714683112258248</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.535660004471806</v>
+        <v>-0.5401266366259966</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01158818138868116</v>
+        <v>0.01314993526267222</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1964776238491701</v>
+        <v>-0.1929590144612869</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3426575289397576</v>
+        <v>-0.3402490695980132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.455630615246868</v>
+        <v>0.4622319351317474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2639720130512483</v>
+        <v>-0.2649094683957425</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3951120366411053</v>
+        <v>-0.3877269144335314</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.348380217915028</v>
+        <v>0.3433566902462362</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2575539589835072</v>
+        <v>-0.2523129386623644</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3168464164361124</v>
+        <v>-0.3220830922922305</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3541827914774326</v>
+        <v>0.3773329025599496</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.002242589484889193</v>
+        <v>0.01272044999057405</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1370231691260901</v>
+        <v>-0.1343711673280192</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7428551391428114</v>
+        <v>0.7454016507019194</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1096800434494998</v>
+        <v>-0.1013500245374768</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2340129918257967</v>
+        <v>-0.2320653191205729</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5795415533171075</v>
+        <v>0.5734608668111523</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-5.283349708238834</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.039946292139901</v>
+        <v>7.039946292139904</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-4.341774391222289</v>
@@ -878,7 +878,7 @@
         <v>-6.581314301859146</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.828460087552676</v>
+        <v>8.828460087552671</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.898035398034552</v>
+        <v>-7.014400161147842</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.375300356234018</v>
+        <v>-7.302658409116892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.717501529703593</v>
+        <v>4.688105798299254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.368972019391566</v>
+        <v>-7.228683248647309</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.5718024278668</v>
+        <v>-10.66700241989431</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.432078838928471</v>
+        <v>7.373980663846213</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.438656009751571</v>
+        <v>-6.368858333381445</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.294623603317296</v>
+        <v>-8.163460307077765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.912527746811026</v>
+        <v>7.047179880873171</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.641555662846241</v>
+        <v>-2.99876115022383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.178524027478349</v>
+        <v>-3.21047790718676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.529802342787566</v>
+        <v>9.322741470846912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.429508249761584</v>
+        <v>-1.317139243879128</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.363050233676226</v>
+        <v>-4.996156533335733</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.2231073377782</v>
+        <v>13.11756405927083</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-3.01780662951288</v>
+        <v>-2.903640889322086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.982244171659168</v>
+        <v>-4.9038980389372</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.6893503179619</v>
+        <v>10.59960537889618</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4079317256120367</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.543559975727215</v>
+        <v>0.5435599757272153</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1811122405515361</v>
@@ -974,7 +974,7 @@
         <v>-0.3360345103312789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4361547087324591</v>
+        <v>0.4361547087324589</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2602995807696569</v>
@@ -983,7 +983,7 @@
         <v>-0.3599374710425055</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4828357150813697</v>
+        <v>0.4828357150813695</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4874836316274792</v>
+        <v>-0.4900377417354626</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.523969264050025</v>
+        <v>-0.513197027423983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3350129337094254</v>
+        <v>0.3271060872312356</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2825356736696208</v>
+        <v>-0.2817642504586839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4175788624122942</v>
+        <v>-0.4191749305839668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.283099123436226</v>
+        <v>0.2887325339660853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3349451502741052</v>
+        <v>-0.3288862298457485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4249901814742727</v>
+        <v>-0.4242095361527397</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3537967647365388</v>
+        <v>0.361915912219797</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2270521330235464</v>
+        <v>-0.2442063432609088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2764316042214164</v>
+        <v>-0.2717860598525524</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8209227203204813</v>
+        <v>0.7826910455643371</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.0634946615060742</v>
+        <v>-0.05763300180182657</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2376025369312004</v>
+        <v>-0.2251137903795074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5855769649142047</v>
+        <v>0.584743269086716</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1737625793250511</v>
+        <v>-0.1626604660170884</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2842970552127236</v>
+        <v>-0.2847851927347039</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6136878355100333</v>
+        <v>0.6138455979038671</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-4.307715109540139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.934196752463934</v>
+        <v>3.934196752463931</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.400834826814458</v>
@@ -1092,7 +1092,7 @@
         <v>-6.387456605500348</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>8.073634165259916</v>
+        <v>8.073634165259911</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.19618195272491</v>
+        <v>-10.99353338928921</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.060743054912654</v>
+        <v>-8.154345732509134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2591883381790726</v>
+        <v>-0.2997047178355566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.033759996232053</v>
+        <v>-9.050938358532468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-14.21084882548906</v>
+        <v>-13.81539813195957</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.709289846259001</v>
+        <v>6.209146334114664</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.619221211701875</v>
+        <v>-8.184810847772322</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.456354470804516</v>
+        <v>-9.43899596051499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.920091619374753</v>
+        <v>4.783180206174241</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.979421099033664</v>
+        <v>-3.925930005322222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4843662825012348</v>
+        <v>-0.9415927398795374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.038733667388488</v>
+        <v>7.919724964095227</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.433819864996982</v>
+        <v>2.141270406154793</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.058893514187824</v>
+        <v>-4.316187599818811</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.0145191028105</v>
+        <v>16.06650554127993</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.859487934211718</v>
+        <v>-1.779601053486206</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.202046266100843</v>
+        <v>-3.499697027132535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.12049838243653</v>
+        <v>11.25891597081218</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3447099645100532</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3148204531710972</v>
+        <v>0.314820453171097</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1522301709539381</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3744279745113315</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4732704539770341</v>
+        <v>0.4732704539770338</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7519713950545345</v>
+        <v>-0.7518721744791192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5673317661881532</v>
+        <v>-0.574785521491969</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01074703732491607</v>
+        <v>-0.02156142522006264</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.352277069530654</v>
+        <v>-0.3602448216245164</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5579465911857525</v>
+        <v>-0.5597483509414592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2267538767108149</v>
+        <v>0.2423660120193998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4565053001703368</v>
+        <v>-0.4438738871911129</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5053286900954416</v>
+        <v>-0.5020422852285747</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2618955694725638</v>
+        <v>0.2565390611913847</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3375826312767593</v>
+        <v>-0.3601177254067168</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.02285134496573638</v>
+        <v>-0.0821063590173545</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8062728732829484</v>
+        <v>0.7686942930879034</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1321028453185943</v>
+        <v>0.1118732170637897</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2028201556783593</v>
+        <v>-0.2222195731970628</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8507840507636685</v>
+        <v>0.8335159809073754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1165491800084282</v>
+        <v>-0.1188953596275312</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2120873064439337</v>
+        <v>-0.2213156493344883</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7405342868605146</v>
+        <v>0.7489393959571528</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.986094790147283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.88150482198498</v>
+        <v>3.881504821984985</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.99765785190713</v>
@@ -1306,7 +1306,7 @@
         <v>-8.70252561461875</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.581040304793232</v>
+        <v>7.581040304793238</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.970938345525351</v>
+        <v>-8.780956464435045</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.570639863774124</v>
+        <v>-9.745649869334084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.891545855078274</v>
+        <v>1.943424863972783</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.994934267601825</v>
+        <v>-6.120848018626053</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.56885716532897</v>
+        <v>-11.43908635341235</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.847234955608963</v>
+        <v>8.72876988955705</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.908536991834294</v>
+        <v>-6.948358137027379</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.19639399378907</v>
+        <v>-9.963515830837082</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.228794575278457</v>
+        <v>6.102734367212702</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.545840474758827</v>
+        <v>-5.446515698657497</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.276154727284379</v>
+        <v>-6.396942046983876</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.882491075124907</v>
+        <v>5.825793241050145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.824047154758191</v>
+        <v>-1.955816184268969</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-7.392711017061615</v>
+        <v>-7.391691047346728</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.99619282117311</v>
+        <v>13.08852670611295</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.168531748441596</v>
+        <v>-4.226946725186982</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-7.434639799210657</v>
+        <v>-7.267002539754036</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.092901645055958</v>
+        <v>9.020344208477724</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4560798410196533</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2216698084164963</v>
+        <v>0.2216698084164966</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1434677629703583</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3822387755118309</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3329800671131895</v>
+        <v>0.3329800671131897</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.482015497183893</v>
+        <v>-0.4794849200560817</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5234925560403121</v>
+        <v>-0.5285754937931153</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1020085714342777</v>
+        <v>0.106160463207387</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2072404688546735</v>
+        <v>-0.2123640756383572</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3969878864116937</v>
+        <v>-0.3961317873131666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3043617157810058</v>
+        <v>0.2959160591630741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2952111477408471</v>
+        <v>-0.2953961620581788</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4297372642872348</v>
+        <v>-0.4232535925391357</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2619466590301329</v>
+        <v>0.2573528976699921</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3311255056068078</v>
+        <v>-0.3301396180420422</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3785906126640312</v>
+        <v>-0.3848179006875191</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3544190506565236</v>
+        <v>0.3519366973945594</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.06841479630613095</v>
+        <v>-0.07283028162731947</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2773514747985162</v>
+        <v>-0.2717541389372555</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4823825021629584</v>
+        <v>0.4904700215025503</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1901218796730065</v>
+        <v>-0.1904526280973746</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3358902431491589</v>
+        <v>-0.3282929998444368</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4134892850696715</v>
+        <v>0.4088103440685505</v>
       </c>
     </row>
     <row r="28">
